--- a/ocms/src/test/resources/DownloadedFiles/VIP List Management (2).xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/VIP List Management (2).xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="63">
   <si>
     <t xml:space="preserve">Caller ID</t>
   </si>
@@ -88,97 +88,103 @@
     <t xml:space="preserve">07/10/2019 15:30:37</t>
   </si>
   <si>
-    <t xml:space="preserve">9</t>
+    <t xml:space="preserve">564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">palak@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philipins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ExclusionList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/10/2019 15:33:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">colour@yahoo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">handle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deer342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singapore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/10/2019 15:47:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aravindq@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">England</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TargetList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/10/2019 15:31:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aravinda@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">santu18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Passport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">England</t>
+    <t xml:space="preserve">Aravind94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1994.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
   </si>
   <si>
     <t xml:space="preserve">VIP</t>
   </si>
   <si>
-    <t xml:space="preserve">No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05/11/2019 14:53:18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">palak@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remote</t>
-  </si>
-  <si>
-    <t xml:space="preserve">675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Philipins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ExclusionList</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07/10/2019 15:33:52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">colour@yahoo.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">handle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deer342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">890</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Singapore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07/10/2019 15:47:09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aravindq@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TargetList</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07/10/2019 15:31:52</t>
+    <t xml:space="preserve">12/11/2019 10:31:33</t>
   </si>
   <si>
     <t xml:space="preserve">546</t>
@@ -370,69 +376,69 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
         <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K3" t="s">
         <v>21</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s">
         <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K4" t="s">
         <v>21</v>
@@ -455,7 +461,7 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
         <v>44</v>
@@ -464,80 +470,80 @@
         <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
         <v>20</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="K5" t="s">
         <v>21</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="H6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I6" t="s">
         <v>20</v>
       </c>
       <c r="J6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K6" t="s">
         <v>21</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H7" t="s">
         <v>19</v>
@@ -552,7 +558,7 @@
         <v>21</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
